--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranu.COMPRO\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF8D240-68C0-48DD-979F-49320009EE86}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786AEC3A-D3E1-4938-9E22-F764991520B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,14 +589,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -637,7 +629,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,12 +652,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFFAFD"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFF7FD"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -714,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,39 +723,36 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,9 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1114,7 +1095,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1126,7 +1107,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="18" t="s">
         <v>18</v>
       </c>
@@ -1136,22 +1117,22 @@
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>42887</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="2">
         <v>8000</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="17" t="s">
@@ -1162,8 +1143,8 @@
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -1174,8 +1155,8 @@
       <c r="D3" s="3">
         <v>8000</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="17" t="s">
@@ -1187,14 +1168,14 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="15"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="18" t="s">
         <v>19</v>
       </c>
@@ -1211,15 +1192,15 @@
       <c r="A5" s="7">
         <v>42887</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>2000</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="17" t="s">
@@ -1231,7 +1212,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -1242,8 +1223,8 @@
       <c r="D6" s="2">
         <v>2000</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -1262,7 +1243,7 @@
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="18" t="s">
         <v>20</v>
       </c>
@@ -1272,22 +1253,22 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42891</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>800</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="17" t="s">
@@ -1298,8 +1279,8 @@
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1310,8 +1291,8 @@
       <c r="D9" s="2">
         <v>800</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="17" t="s">
@@ -1323,14 +1304,14 @@
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="18" t="s">
         <v>21</v>
       </c>
@@ -1347,15 +1328,15 @@
       <c r="A11" s="7">
         <v>42894</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>500</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -1367,7 +1348,7 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1378,8 +1359,8 @@
       <c r="D12" s="2">
         <v>500</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -1398,7 +1379,7 @@
       <c r="B13" s="6"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="18" t="s">
         <v>22</v>
       </c>
@@ -1408,22 +1389,22 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>42896</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>700</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="17" t="s">
@@ -1434,8 +1415,8 @@
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1446,8 +1427,8 @@
       <c r="D15" s="2">
         <v>600</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="12" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="17" t="s">
@@ -1459,7 +1440,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ranu.COMPRO\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786AEC3A-D3E1-4938-9E22-F764991520B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -57,9 +56,6 @@
     <t xml:space="preserve">        Cash</t>
   </si>
   <si>
-    <t xml:space="preserve">    Fees Earned</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -533,21 +529,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> On 6/1, Core Fitness received cash from an investor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On 6/1, Core Fitness paid rent for the month for its fitness studio space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On 6/5, a customer paid $800 cash as membership fees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On 6/8, Core Fitness paid $500 for employee wages.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On 6/10, a customer paid $700 cash as membership fees.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Cash</t>
   </si>
   <si>
@@ -555,18 +536,43 @@
   </si>
   <si>
     <t xml:space="preserve">  Wages Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On 6/1, Core Fitness received $8,000 of cash from an investor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On 6/1, Core Fitness paid $2,000 in monthly rent for its fitness studio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On 6/5, a customer paid $800 cash as annual membership fees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On 6/8, Core Fitness paid $500 in employee wages.</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Journal Entries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -589,14 +595,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -627,6 +625,36 @@
       <color rgb="FFFF0000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -700,58 +728,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="37" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,386 +1104,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="18" t="s">
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="7">
+        <v>42887</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8000</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="3">
+        <v>8000</v>
+      </c>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="7">
+        <v>42887</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="J8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="11"/>
     </row>
-    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>42887</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="7">
+        <v>42891</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2">
+        <v>800</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2">
+        <v>800</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2">
-        <v>8000</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="11" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="7">
+        <v>42894</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="2">
+        <v>500</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3">
-        <v>8000</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>42887</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>42891</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2">
-        <v>800</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2">
-        <v>800</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>42894</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2">
         <v>500</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2">
-        <v>500</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>42896</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2">
-        <v>700</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2">
-        <v>600</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="9"/>
+      <c r="L15" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:M3"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="G5:M5"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="F13:L13"/>
+  <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="A13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.xlsx
@@ -627,13 +627,6 @@
       <charset val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +645,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -769,14 +769,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1108,7 @@
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,11 +1398,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B9:G9"/>
@@ -1410,6 +1405,11 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/2.2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\Grid\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF279E40-DBEA-4414-83D3-91307678DBA0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -559,7 +560,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -771,7 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -779,6 +779,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,11 +1105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,33 +1124,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="16" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="19" t="s">
         <v>25</v>
       </c>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,14 +1170,14 @@
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="7">
         <v>42887</v>
       </c>
@@ -1192,14 +1194,14 @@
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
         <v>6</v>
@@ -1211,15 +1213,15 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="3"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2"/>
@@ -1230,14 +1232,14 @@
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="7">
         <v>42887</v>
       </c>
@@ -1254,14 +1256,14 @@
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4" t="s">
         <v>7</v>
@@ -1273,15 +1275,15 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
@@ -1292,14 +1294,14 @@
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="7">
         <v>42891</v>
       </c>
@@ -1316,14 +1318,14 @@
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="3"/>
       <c r="I12" s="5" t="s">
         <v>5</v>
@@ -1335,15 +1337,15 @@
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="3"/>
       <c r="I13" s="5"/>
       <c r="J13" s="3"/>
@@ -1354,14 +1356,14 @@
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="7">
         <v>42894</v>
       </c>
@@ -1378,14 +1380,14 @@
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6" t="s">
         <v>4</v>
@@ -1397,7 +1399,14 @@
       <c r="L15" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B9:G9"/>
@@ -1405,11 +1414,6 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
